--- a/data/trans_dic/P19D_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08859069203290744</v>
+        <v>0.09025239549924167</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1786393163798931</v>
+        <v>0.1785891352011556</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.129161483346698</v>
+        <v>0.1297465395226957</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1841552457966899</v>
+        <v>0.1858477491830738</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06135256230806075</v>
+        <v>0.06113640447357741</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1346396573833654</v>
+        <v>0.133645889293951</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1057578243986896</v>
+        <v>0.105152830891272</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1137269633202913</v>
+        <v>0.1106085929740132</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07826857000835211</v>
+        <v>0.07768248287146814</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1621492174706651</v>
+        <v>0.1613859482738781</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1219946635335381</v>
+        <v>0.1229999999238401</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1525188712024378</v>
+        <v>0.1510626424019189</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1546034588017293</v>
+        <v>0.157739916604294</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2358244988972138</v>
+        <v>0.235494253994358</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1824014778728842</v>
+        <v>0.1827763830421631</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2717064549111867</v>
+        <v>0.2698723430020971</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1024852160450195</v>
+        <v>0.100979834834142</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1833753853354918</v>
+        <v>0.1845771546965602</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1499151487053183</v>
+        <v>0.1513314288041203</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1651865711253006</v>
+        <v>0.1637945798699024</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1127231801134455</v>
+        <v>0.1112176079463308</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1986511055907667</v>
+        <v>0.1993244271074713</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1557130539745</v>
+        <v>0.1585314447073733</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1984467731438164</v>
+        <v>0.1996019964424581</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.07563592621037583</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.0832759825747735</v>
+        <v>0.08327598257477349</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05720331301014309</v>
+        <v>0.05651328325664854</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1215458526884132</v>
+        <v>0.1192685023901639</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05368991313903191</v>
+        <v>0.05465452643363655</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08442516064981004</v>
+        <v>0.08427292083690359</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05187194402764241</v>
+        <v>0.05242937461031365</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08928426475379533</v>
+        <v>0.09045130015709114</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06067780907310941</v>
+        <v>0.05990044611849949</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05366145529663262</v>
+        <v>0.05345955874544431</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0592562057401437</v>
+        <v>0.05850147623457597</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1090496886352698</v>
+        <v>0.109338086000273</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06283832196351928</v>
+        <v>0.06273025762108121</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07162718227390594</v>
+        <v>0.07114653969663517</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09433713613472273</v>
+        <v>0.09177626959586171</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1720099803322883</v>
+        <v>0.1690645366527504</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09283087008976686</v>
+        <v>0.09156765757116252</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1315139957187045</v>
+        <v>0.1300573423184699</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08544723645154703</v>
+        <v>0.08773463837963821</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1311635212046372</v>
+        <v>0.1304863791664422</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09971302996025067</v>
+        <v>0.09881301623279129</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0800112828206401</v>
+        <v>0.07922990816265701</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08488029348174804</v>
+        <v>0.08346528875014522</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1427380717710365</v>
+        <v>0.1434089385381467</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08982901527433711</v>
+        <v>0.09110890493525951</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09770589647274272</v>
+        <v>0.09605636144755623</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04094808284936374</v>
+        <v>0.04116879450377252</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06863788557371857</v>
+        <v>0.07011021215170213</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05535001166628733</v>
+        <v>0.05491630307800212</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0409054888711021</v>
+        <v>0.04192725212335306</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04546346847579424</v>
+        <v>0.04518270569179577</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06197024393749306</v>
+        <v>0.0632313531034366</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05229162233394433</v>
+        <v>0.05022892170856717</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.018473267553368</v>
+        <v>0.01842660672543084</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04649754090443783</v>
+        <v>0.04589485483714791</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07187109937795925</v>
+        <v>0.07075560280343575</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05863210744623565</v>
+        <v>0.0594088521411973</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03218070676555744</v>
+        <v>0.0332864691414475</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07085438181262102</v>
+        <v>0.0727884569427294</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1109330274577788</v>
+        <v>0.1122820629013542</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09495738380476691</v>
+        <v>0.0935400917175208</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07668020405778088</v>
+        <v>0.07437474195631137</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07820490535992741</v>
+        <v>0.07692373870088796</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1017723195796461</v>
+        <v>0.1015266563643157</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0931932069900617</v>
+        <v>0.09460193906093661</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0342683710710715</v>
+        <v>0.03592821658295126</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07064620971644786</v>
+        <v>0.06866977561789661</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.100479342485484</v>
+        <v>0.1003867980641992</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.08712887065090195</v>
+        <v>0.08697676141216903</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05099489751381198</v>
+        <v>0.05158853334270623</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.05465863209113087</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.03764954474262291</v>
+        <v>0.03764954474262292</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.05478020341332385</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03873435162364492</v>
+        <v>0.03748895727157475</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04947224142007762</v>
+        <v>0.05008681456155362</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02816293591100905</v>
+        <v>0.0303082141533318</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02233255100625407</v>
+        <v>0.02224056867809287</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02541963085994207</v>
+        <v>0.02843576430564866</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.036531648375269</v>
+        <v>0.03525205801340314</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03516893642758044</v>
+        <v>0.03580201558919557</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02691587117560777</v>
+        <v>0.02672558204059502</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03910853461994384</v>
+        <v>0.03856855114547472</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04762756548260158</v>
+        <v>0.0483138401153167</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03792261011952947</v>
+        <v>0.03661652338789661</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02754220708057135</v>
+        <v>0.02752304726315065</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09180368046029885</v>
+        <v>0.08919756481809962</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1043483173699161</v>
+        <v>0.09998776644540626</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07355331942240312</v>
+        <v>0.07303029231220745</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05120153469042138</v>
+        <v>0.05263612921681081</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0793351635078291</v>
+        <v>0.08058513023189501</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08042404101427425</v>
+        <v>0.08115161015480644</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08098005974202144</v>
+        <v>0.0815196833038012</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05117500394319423</v>
+        <v>0.05217797176735311</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07612641550339536</v>
+        <v>0.07392291273557748</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08291715477138127</v>
+        <v>0.08305048989884177</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06917805708666516</v>
+        <v>0.06922200357920655</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04789853268665101</v>
+        <v>0.04659429297987251</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.09311828885182134</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08582086671361612</v>
+        <v>0.08582086671361611</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.06653821030713408</v>
@@ -1229,7 +1229,7 @@
         <v>0.08867833250554184</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.05868380907810388</v>
+        <v>0.05868380907810389</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.0692522986594571</v>
@@ -1241,7 +1241,7 @@
         <v>0.09081273943016903</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.07177900913182717</v>
+        <v>0.07177900913182718</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0627854931714973</v>
+        <v>0.06213210651548629</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1236055665577665</v>
+        <v>0.1238472286748527</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08110349222829576</v>
+        <v>0.08266952856185988</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0758244944284346</v>
+        <v>0.07518835125923883</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05775033025586709</v>
+        <v>0.05665564117740169</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09680369787986487</v>
+        <v>0.09816308005315748</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0789086518862922</v>
+        <v>0.0790530105801851</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05224926930661831</v>
+        <v>0.05185979324206466</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06207101285608897</v>
+        <v>0.06260445887979693</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1130903128683076</v>
+        <v>0.1132946033447035</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08328086072453149</v>
+        <v>0.08347650252064444</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06526246753424465</v>
+        <v>0.06553681344455051</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08413777328605097</v>
+        <v>0.08369680456011108</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1496807794232967</v>
+        <v>0.1494546814889307</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1043013394258197</v>
+        <v>0.1046342409067765</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09844217090687468</v>
+        <v>0.0968220283180031</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0763933260577626</v>
+        <v>0.07650323610849326</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1204798374989643</v>
+        <v>0.1215015619112598</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1013526244977009</v>
+        <v>0.1007994501661872</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06605241431751482</v>
+        <v>0.06555374809332683</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07634896519441417</v>
+        <v>0.07676783710727879</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1307784552807226</v>
+        <v>0.1308880770899965</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0990739479048298</v>
+        <v>0.09946818907100091</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.07873814154062882</v>
+        <v>0.07823630735851141</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>35149</v>
+        <v>35808</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>147283</v>
+        <v>147242</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>101309</v>
+        <v>101768</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>83457</v>
+        <v>84225</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>44825</v>
+        <v>44667</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>127697</v>
+        <v>126754</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>97584</v>
+        <v>97026</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>67019</v>
+        <v>65181</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>88237</v>
+        <v>87576</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>287475</v>
+        <v>286122</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>208254</v>
+        <v>209970</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>158999</v>
+        <v>157481</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>61339</v>
+        <v>62584</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>194430</v>
+        <v>194158</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>143069</v>
+        <v>143363</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>123135</v>
+        <v>122304</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>74876</v>
+        <v>73776</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>173919</v>
+        <v>175059</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>138329</v>
+        <v>139636</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>97344</v>
+        <v>96524</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>127079</v>
+        <v>125382</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>352189</v>
+        <v>353383</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>265814</v>
+        <v>270625</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>206879</v>
+        <v>208083</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>45799</v>
+        <v>45246</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>102065</v>
+        <v>100152</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>38295</v>
+        <v>38983</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>77853</v>
+        <v>77713</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>44088</v>
+        <v>44562</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>85879</v>
+        <v>87001</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>51055</v>
+        <v>50401</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>58342</v>
+        <v>58122</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>97807</v>
+        <v>96561</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>196461</v>
+        <v>196981</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>97694</v>
+        <v>97526</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>143926</v>
+        <v>142960</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>75529</v>
+        <v>73479</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>144440</v>
+        <v>141967</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>66213</v>
+        <v>65312</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>121276</v>
+        <v>119933</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>72625</v>
+        <v>74570</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>126160</v>
+        <v>125509</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>83900</v>
+        <v>83142</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>86990</v>
+        <v>86140</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>140101</v>
+        <v>137765</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>257154</v>
+        <v>258362</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>139655</v>
+        <v>141645</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>196328</v>
+        <v>193014</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>36507</v>
+        <v>36704</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>53366</v>
+        <v>54511</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>39636</v>
+        <v>39325</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>42063</v>
+        <v>43114</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>37718</v>
+        <v>37485</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>49831</v>
+        <v>50845</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>34459</v>
+        <v>33099</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>19077</v>
+        <v>19028</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>80030</v>
+        <v>78993</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>113672</v>
+        <v>111908</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>80623</v>
+        <v>81691</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>66323</v>
+        <v>68602</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>63170</v>
+        <v>64894</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>86251</v>
+        <v>87299</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>67998</v>
+        <v>66983</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>78850</v>
+        <v>76479</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>64881</v>
+        <v>63818</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>81836</v>
+        <v>81638</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>61411</v>
+        <v>62340</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>35388</v>
+        <v>37102</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>121594</v>
+        <v>118192</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>158919</v>
+        <v>158773</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>119807</v>
+        <v>119598</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>105098</v>
+        <v>106322</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>13168</v>
+        <v>12745</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>22327</v>
+        <v>22605</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>12077</v>
+        <v>12997</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>21136</v>
+        <v>21049</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7082</v>
+        <v>7923</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>15144</v>
+        <v>14614</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>15170</v>
+        <v>15443</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>23769</v>
+        <v>23601</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>24192</v>
+        <v>23858</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>41239</v>
+        <v>41833</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>32620</v>
+        <v>31497</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>50389</v>
+        <v>50354</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>31210</v>
+        <v>30324</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>47093</v>
+        <v>45125</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>31542</v>
+        <v>31318</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>48459</v>
+        <v>49817</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>22105</v>
+        <v>22453</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>33340</v>
+        <v>33642</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>34931</v>
+        <v>35164</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>45192</v>
+        <v>46077</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>47091</v>
+        <v>45728</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>71795</v>
+        <v>71910</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>59506</v>
+        <v>59544</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>87631</v>
+        <v>85245</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>152499</v>
+        <v>150912</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>357591</v>
+        <v>358290</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>214321</v>
+        <v>218459</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>254018</v>
+        <v>251887</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>155279</v>
+        <v>152335</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>302894</v>
+        <v>307147</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>225240</v>
+        <v>225653</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>187693</v>
+        <v>186294</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>317660</v>
+        <v>320390</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>681024</v>
+        <v>682255</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>457795</v>
+        <v>458871</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>453075</v>
+        <v>454979</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>204361</v>
+        <v>203290</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>433027</v>
+        <v>432373</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>275622</v>
+        <v>276502</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>329789</v>
+        <v>324362</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>205406</v>
+        <v>205702</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>376975</v>
+        <v>380172</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>289306</v>
+        <v>287727</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>237278</v>
+        <v>235486</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>390730</v>
+        <v>392873</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>787541</v>
+        <v>788202</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>544610</v>
+        <v>546777</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>546627</v>
+        <v>543143</v>
       </c>
     </row>
     <row r="24">
